--- a/产品合格证.xlsx
+++ b/产品合格证.xlsx
@@ -1482,7 +1482,8 @@
     <x:col min="23" max="23" width="17.333333" style="2" customWidth="1"/>
     <x:col min="24" max="31" width="1.666667" style="2" customWidth="1"/>
     <x:col min="32" max="32" width="3.666667" style="2" customWidth="1"/>
-    <x:col min="33" max="43" width="1.666667" style="2" customWidth="1"/>
+    <x:col min="33" max="42" width="1.666667" style="2" customWidth="1"/>
+    <x:col min="43" max="43" width="1.333333" style="2" customWidth="1"/>
     <x:col min="44" max="44" width="17.333333" style="2" customWidth="1"/>
     <x:col min="45" max="229" width="1.666667" style="2" customWidth="1"/>
     <x:col min="230" max="233" width="8.833333" style="2" customWidth="1"/>
@@ -2520,7 +2521,7 @@
       <x:c r="W2" s="0"/>
       <x:c r="X2" s="0"/>
     </x:row>
-    <x:row r="3" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+    <x:row r="3" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D3" s="0"/>
       <x:c r="E3" s="3"/>
       <x:c r="F3" s="4"/>
@@ -2561,40 +2562,45 @@
       <x:c r="AP3" s="4"/>
       <x:c r="AQ3" s="4"/>
       <x:c r="AR3" s="18"/>
-    </x:row>
-    <x:row r="4" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS3" s="0"/>
+    </x:row>
+    <x:row r="4" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D4" s="0"/>
       <x:c r="E4" s="5"/>
       <x:c r="W4" s="19"/>
       <x:c r="X4" s="0"/>
       <x:c r="Z4" s="5"/>
       <x:c r="AR4" s="19"/>
-    </x:row>
-    <x:row r="5" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS4" s="0"/>
+    </x:row>
+    <x:row r="5" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D5" s="0"/>
       <x:c r="E5" s="5"/>
       <x:c r="W5" s="19"/>
       <x:c r="X5" s="0"/>
       <x:c r="Z5" s="5"/>
       <x:c r="AR5" s="19"/>
-    </x:row>
-    <x:row r="6" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS5" s="0"/>
+    </x:row>
+    <x:row r="6" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D6" s="0"/>
       <x:c r="E6" s="5"/>
       <x:c r="W6" s="19"/>
       <x:c r="X6" s="0"/>
       <x:c r="Z6" s="5"/>
       <x:c r="AR6" s="19"/>
-    </x:row>
-    <x:row r="7" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS6" s="0"/>
+    </x:row>
+    <x:row r="7" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D7" s="0"/>
       <x:c r="E7" s="5"/>
       <x:c r="W7" s="19"/>
       <x:c r="X7" s="0"/>
       <x:c r="Z7" s="5"/>
       <x:c r="AR7" s="19"/>
-    </x:row>
-    <x:row r="8" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS7" s="0"/>
+    </x:row>
+    <x:row r="8" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D8" s="0"/>
       <x:c r="E8" s="6" t="s">
         <x:v>0</x:v>
@@ -2639,8 +2645,9 @@
       <x:c r="AP8" s="7"/>
       <x:c r="AQ8" s="7"/>
       <x:c r="AR8" s="20"/>
-    </x:row>
-    <x:row r="9" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS8" s="0"/>
+    </x:row>
+    <x:row r="9" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D9" s="0"/>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="7"/>
@@ -2681,8 +2688,9 @@
       <x:c r="AP9" s="7"/>
       <x:c r="AQ9" s="7"/>
       <x:c r="AR9" s="20"/>
-    </x:row>
-    <x:row r="10" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS9" s="0"/>
+    </x:row>
+    <x:row r="10" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D10" s="0"/>
       <x:c r="E10" s="5"/>
       <x:c r="F10" s="8" t="s">
@@ -2731,8 +2739,9 @@
       <x:c r="AP10" s="13"/>
       <x:c r="AQ10" s="13"/>
       <x:c r="AR10" s="21"/>
-    </x:row>
-    <x:row r="11" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS10" s="0"/>
+    </x:row>
+    <x:row r="11" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D11" s="0"/>
       <x:c r="E11" s="5"/>
       <x:c r="F11" s="8"/>
@@ -2773,8 +2782,9 @@
       <x:c r="AP11" s="13"/>
       <x:c r="AQ11" s="13"/>
       <x:c r="AR11" s="21"/>
-    </x:row>
-    <x:row r="12" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS11" s="0"/>
+    </x:row>
+    <x:row r="12" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D12" s="0"/>
       <x:c r="E12" s="5"/>
       <x:c r="F12" s="8" t="s">
@@ -2823,8 +2833,9 @@
       <x:c r="AP12" s="14"/>
       <x:c r="AQ12" s="14"/>
       <x:c r="AR12" s="22"/>
-    </x:row>
-    <x:row r="13" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS12" s="0"/>
+    </x:row>
+    <x:row r="13" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D13" s="0"/>
       <x:c r="E13" s="5"/>
       <x:c r="F13" s="8"/>
@@ -2865,8 +2876,9 @@
       <x:c r="AP13" s="14"/>
       <x:c r="AQ13" s="14"/>
       <x:c r="AR13" s="22"/>
-    </x:row>
-    <x:row r="14" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS13" s="0"/>
+    </x:row>
+    <x:row r="14" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D14" s="0"/>
       <x:c r="E14" s="5"/>
       <x:c r="F14" s="8"/>
@@ -2907,8 +2919,9 @@
       <x:c r="AP14" s="14"/>
       <x:c r="AQ14" s="14"/>
       <x:c r="AR14" s="22"/>
-    </x:row>
-    <x:row r="15" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS14" s="0"/>
+    </x:row>
+    <x:row r="15" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D15" s="0"/>
       <x:c r="E15" s="5"/>
       <x:c r="F15" s="8" t="s">
@@ -2957,8 +2970,9 @@
       <x:c r="AP15" s="14"/>
       <x:c r="AQ15" s="14"/>
       <x:c r="AR15" s="22"/>
-    </x:row>
-    <x:row r="16" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS15" s="0"/>
+    </x:row>
+    <x:row r="16" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D16" s="0"/>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="8"/>
@@ -2999,8 +3013,9 @@
       <x:c r="AP16" s="14"/>
       <x:c r="AQ16" s="14"/>
       <x:c r="AR16" s="22"/>
-    </x:row>
-    <x:row r="17" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS16" s="0"/>
+    </x:row>
+    <x:row r="17" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D17" s="0"/>
       <x:c r="E17" s="5"/>
       <x:c r="F17" s="8"/>
@@ -3041,8 +3056,9 @@
       <x:c r="AP17" s="14"/>
       <x:c r="AQ17" s="14"/>
       <x:c r="AR17" s="22"/>
-    </x:row>
-    <x:row r="18" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS17" s="0"/>
+    </x:row>
+    <x:row r="18" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D18" s="0"/>
       <x:c r="E18" s="5"/>
       <x:c r="F18" s="8" t="s">
@@ -3091,8 +3107,9 @@
       <x:c r="AP18" s="13"/>
       <x:c r="AQ18" s="13"/>
       <x:c r="AR18" s="21"/>
-    </x:row>
-    <x:row r="19" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS18" s="0"/>
+    </x:row>
+    <x:row r="19" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D19" s="0"/>
       <x:c r="E19" s="5"/>
       <x:c r="F19" s="8"/>
@@ -3133,8 +3150,9 @@
       <x:c r="AP19" s="13"/>
       <x:c r="AQ19" s="13"/>
       <x:c r="AR19" s="21"/>
-    </x:row>
-    <x:row r="20" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS19" s="0"/>
+    </x:row>
+    <x:row r="20" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D20" s="0"/>
       <x:c r="E20" s="5"/>
       <x:c r="F20" s="8" t="s">
@@ -3183,8 +3201,9 @@
       <x:c r="AP20" s="16"/>
       <x:c r="AQ20" s="16"/>
       <x:c r="AR20" s="23"/>
-    </x:row>
-    <x:row r="21" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS20" s="0"/>
+    </x:row>
+    <x:row r="21" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D21" s="0"/>
       <x:c r="E21" s="5"/>
       <x:c r="F21" s="8"/>
@@ -3225,8 +3244,9 @@
       <x:c r="AP21" s="16"/>
       <x:c r="AQ21" s="16"/>
       <x:c r="AR21" s="23"/>
-    </x:row>
-    <x:row r="22" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS21" s="0"/>
+    </x:row>
+    <x:row r="22" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D22" s="0"/>
       <x:c r="E22" s="5"/>
       <x:c r="F22" s="9" t="s">
@@ -3275,8 +3295,9 @@
       <x:c r="AP22" s="13"/>
       <x:c r="AQ22" s="13"/>
       <x:c r="AR22" s="21"/>
-    </x:row>
-    <x:row r="23" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS22" s="0"/>
+    </x:row>
+    <x:row r="23" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D23" s="0"/>
       <x:c r="E23" s="5"/>
       <x:c r="F23" s="9"/>
@@ -3317,8 +3338,9 @@
       <x:c r="AP23" s="13"/>
       <x:c r="AQ23" s="13"/>
       <x:c r="AR23" s="21"/>
-    </x:row>
-    <x:row r="24" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS23" s="0"/>
+    </x:row>
+    <x:row r="24" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D24" s="0"/>
       <x:c r="E24" s="5"/>
       <x:c r="F24" s="8" t="s">
@@ -3367,8 +3389,9 @@
       <x:c r="AP24" s="17"/>
       <x:c r="AQ24" s="17"/>
       <x:c r="AR24" s="24"/>
-    </x:row>
-    <x:row r="25" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS24" s="0"/>
+    </x:row>
+    <x:row r="25" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D25" s="0"/>
       <x:c r="E25" s="5"/>
       <x:c r="F25" s="8"/>
@@ -3409,8 +3432,9 @@
       <x:c r="AP25" s="17"/>
       <x:c r="AQ25" s="17"/>
       <x:c r="AR25" s="24"/>
-    </x:row>
-    <x:row r="26" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS25" s="0"/>
+    </x:row>
+    <x:row r="26" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D26" s="0"/>
       <x:c r="E26" s="10" t="s">
         <x:v>16</x:v>
@@ -3455,8 +3479,9 @@
       <x:c r="AP26" s="9"/>
       <x:c r="AQ26" s="9"/>
       <x:c r="AR26" s="25"/>
-    </x:row>
-    <x:row r="27" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS26" s="0"/>
+    </x:row>
+    <x:row r="27" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D27" s="0"/>
       <x:c r="E27" s="10"/>
       <x:c r="F27" s="9"/>
@@ -3497,8 +3522,9 @@
       <x:c r="AP27" s="9"/>
       <x:c r="AQ27" s="9"/>
       <x:c r="AR27" s="25"/>
-    </x:row>
-    <x:row r="28" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
+      <x:c r="AS27" s="0"/>
+    </x:row>
+    <x:row r="28" spans="1:16357" ht="14.25" customHeight="1" s="1" customFormat="1">
       <x:c r="D28" s="0"/>
       <x:c r="E28" s="11"/>
       <x:c r="F28" s="12"/>
@@ -3539,6 +3565,7 @@
       <x:c r="AP28" s="12"/>
       <x:c r="AQ28" s="12"/>
       <x:c r="AR28" s="26"/>
+      <x:c r="AS28" s="0"/>
     </x:row>
     <x:row r="29" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
       <x:c r="D29" s="0"/>
@@ -3562,6 +3589,26 @@
       <x:c r="V29" s="0"/>
       <x:c r="W29" s="0"/>
       <x:c r="X29" s="0"/>
+      <x:c r="Z29" s="0"/>
+      <x:c r="AA29" s="0"/>
+      <x:c r="AB29" s="0"/>
+      <x:c r="AC29" s="0"/>
+      <x:c r="AD29" s="0"/>
+      <x:c r="AE29" s="0"/>
+      <x:c r="AF29" s="0"/>
+      <x:c r="AG29" s="0"/>
+      <x:c r="AH29" s="0"/>
+      <x:c r="AI29" s="0"/>
+      <x:c r="AJ29" s="0"/>
+      <x:c r="AK29" s="0"/>
+      <x:c r="AL29" s="0"/>
+      <x:c r="AM29" s="0"/>
+      <x:c r="AN29" s="0"/>
+      <x:c r="AO29" s="0"/>
+      <x:c r="AP29" s="0"/>
+      <x:c r="AQ29" s="0"/>
+      <x:c r="AR29" s="0"/>
+      <x:c r="AS29" s="0"/>
     </x:row>
     <x:row r="30" spans="1:16357" ht="10" customHeight="1" s="1" customFormat="1">
       <x:c r="E30" s="0"/>
@@ -3604,6 +3651,7 @@
       <x:c r="U31" s="4"/>
       <x:c r="V31" s="4"/>
       <x:c r="W31" s="18"/>
+      <x:c r="X31" s="0"/>
       <x:c r="Z31" s="3"/>
       <x:c r="AA31" s="4"/>
       <x:c r="AB31" s="4"/>
@@ -3623,30 +3671,39 @@
       <x:c r="AP31" s="4"/>
       <x:c r="AQ31" s="4"/>
       <x:c r="AR31" s="18"/>
+      <x:c r="AS31" s="0"/>
     </x:row>
     <x:row r="32" spans="1:16357">
       <x:c r="E32" s="5"/>
       <x:c r="W32" s="19"/>
+      <x:c r="X32" s="0"/>
       <x:c r="Z32" s="5"/>
       <x:c r="AR32" s="19"/>
+      <x:c r="AS32" s="0"/>
     </x:row>
     <x:row r="33" spans="1:16357">
       <x:c r="E33" s="5"/>
       <x:c r="W33" s="19"/>
+      <x:c r="X33" s="0"/>
       <x:c r="Z33" s="5"/>
       <x:c r="AR33" s="19"/>
+      <x:c r="AS33" s="0"/>
     </x:row>
     <x:row r="34" spans="1:16357">
       <x:c r="E34" s="5"/>
       <x:c r="W34" s="19"/>
+      <x:c r="X34" s="0"/>
       <x:c r="Z34" s="5"/>
       <x:c r="AR34" s="19"/>
+      <x:c r="AS34" s="0"/>
     </x:row>
     <x:row r="35" spans="1:16357">
       <x:c r="E35" s="5"/>
       <x:c r="W35" s="19"/>
+      <x:c r="X35" s="0"/>
       <x:c r="Z35" s="5"/>
       <x:c r="AR35" s="19"/>
+      <x:c r="AS35" s="0"/>
     </x:row>
     <x:row r="36" spans="1:16357">
       <x:c r="E36" s="6" t="s">
@@ -3670,6 +3727,7 @@
       <x:c r="U36" s="7"/>
       <x:c r="V36" s="7"/>
       <x:c r="W36" s="20"/>
+      <x:c r="X36" s="0"/>
       <x:c r="Z36" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -3691,6 +3749,7 @@
       <x:c r="AP36" s="7"/>
       <x:c r="AQ36" s="7"/>
       <x:c r="AR36" s="20"/>
+      <x:c r="AS36" s="0"/>
     </x:row>
     <x:row r="37" spans="1:16357">
       <x:c r="E37" s="6"/>
@@ -3712,6 +3771,7 @@
       <x:c r="U37" s="7"/>
       <x:c r="V37" s="7"/>
       <x:c r="W37" s="20"/>
+      <x:c r="X37" s="0"/>
       <x:c r="Z37" s="6"/>
       <x:c r="AA37" s="7"/>
       <x:c r="AB37" s="7"/>
@@ -3731,6 +3791,7 @@
       <x:c r="AP37" s="7"/>
       <x:c r="AQ37" s="7"/>
       <x:c r="AR37" s="20"/>
+      <x:c r="AS37" s="0"/>
     </x:row>
     <x:row r="38" spans="1:16357">
       <x:c r="E38" s="5"/>
@@ -3756,6 +3817,7 @@
       <x:c r="U38" s="13"/>
       <x:c r="V38" s="13"/>
       <x:c r="W38" s="21"/>
+      <x:c r="X38" s="0"/>
       <x:c r="Z38" s="5"/>
       <x:c r="AA38" s="8" t="s">
         <x:v>1</x:v>
@@ -3779,6 +3841,7 @@
       <x:c r="AP38" s="13"/>
       <x:c r="AQ38" s="13"/>
       <x:c r="AR38" s="21"/>
+      <x:c r="AS38" s="0"/>
     </x:row>
     <x:row r="39" spans="1:16357">
       <x:c r="E39" s="5"/>
@@ -3800,6 +3863,7 @@
       <x:c r="U39" s="13"/>
       <x:c r="V39" s="13"/>
       <x:c r="W39" s="21"/>
+      <x:c r="X39" s="0"/>
       <x:c r="Z39" s="5"/>
       <x:c r="AA39" s="8"/>
       <x:c r="AB39" s="8"/>
@@ -3819,6 +3883,7 @@
       <x:c r="AP39" s="13"/>
       <x:c r="AQ39" s="13"/>
       <x:c r="AR39" s="21"/>
+      <x:c r="AS39" s="0"/>
     </x:row>
     <x:row r="40" spans="1:16357">
       <x:c r="E40" s="5"/>
@@ -3844,6 +3909,7 @@
       <x:c r="U40" s="14"/>
       <x:c r="V40" s="14"/>
       <x:c r="W40" s="22"/>
+      <x:c r="X40" s="0"/>
       <x:c r="Z40" s="5"/>
       <x:c r="AA40" s="8" t="s">
         <x:v>3</x:v>
@@ -3867,6 +3933,7 @@
       <x:c r="AP40" s="14"/>
       <x:c r="AQ40" s="14"/>
       <x:c r="AR40" s="22"/>
+      <x:c r="AS40" s="0"/>
     </x:row>
     <x:row r="41" spans="1:16357">
       <x:c r="E41" s="5"/>
@@ -3888,6 +3955,7 @@
       <x:c r="U41" s="14"/>
       <x:c r="V41" s="14"/>
       <x:c r="W41" s="22"/>
+      <x:c r="X41" s="0"/>
       <x:c r="Z41" s="5"/>
       <x:c r="AA41" s="8"/>
       <x:c r="AB41" s="8"/>
@@ -3907,6 +3975,7 @@
       <x:c r="AP41" s="14"/>
       <x:c r="AQ41" s="14"/>
       <x:c r="AR41" s="22"/>
+      <x:c r="AS41" s="0"/>
     </x:row>
     <x:row r="42" spans="1:16357">
       <x:c r="E42" s="5"/>
@@ -3928,6 +3997,7 @@
       <x:c r="U42" s="14"/>
       <x:c r="V42" s="14"/>
       <x:c r="W42" s="22"/>
+      <x:c r="X42" s="0"/>
       <x:c r="Z42" s="5"/>
       <x:c r="AA42" s="8"/>
       <x:c r="AB42" s="8"/>
@@ -3947,6 +4017,7 @@
       <x:c r="AP42" s="14"/>
       <x:c r="AQ42" s="14"/>
       <x:c r="AR42" s="22"/>
+      <x:c r="AS42" s="0"/>
     </x:row>
     <x:row r="43" spans="1:16357">
       <x:c r="E43" s="5"/>
@@ -3972,6 +4043,7 @@
       <x:c r="U43" s="14"/>
       <x:c r="V43" s="14"/>
       <x:c r="W43" s="22"/>
+      <x:c r="X43" s="0"/>
       <x:c r="Z43" s="5"/>
       <x:c r="AA43" s="8" t="s">
         <x:v>6</x:v>
@@ -3995,6 +4067,7 @@
       <x:c r="AP43" s="14"/>
       <x:c r="AQ43" s="14"/>
       <x:c r="AR43" s="22"/>
+      <x:c r="AS43" s="0"/>
     </x:row>
     <x:row r="44" spans="1:16357">
       <x:c r="E44" s="5"/>
@@ -4016,6 +4089,7 @@
       <x:c r="U44" s="14"/>
       <x:c r="V44" s="14"/>
       <x:c r="W44" s="22"/>
+      <x:c r="X44" s="0"/>
       <x:c r="Z44" s="5"/>
       <x:c r="AA44" s="8"/>
       <x:c r="AB44" s="8"/>
@@ -4035,6 +4109,7 @@
       <x:c r="AP44" s="14"/>
       <x:c r="AQ44" s="14"/>
       <x:c r="AR44" s="22"/>
+      <x:c r="AS44" s="0"/>
     </x:row>
     <x:row r="45" spans="1:16357">
       <x:c r="E45" s="5"/>
@@ -4056,6 +4131,7 @@
       <x:c r="U45" s="14"/>
       <x:c r="V45" s="14"/>
       <x:c r="W45" s="22"/>
+      <x:c r="X45" s="0"/>
       <x:c r="Z45" s="5"/>
       <x:c r="AA45" s="8"/>
       <x:c r="AB45" s="8"/>
@@ -4075,6 +4151,7 @@
       <x:c r="AP45" s="14"/>
       <x:c r="AQ45" s="14"/>
       <x:c r="AR45" s="22"/>
+      <x:c r="AS45" s="0"/>
     </x:row>
     <x:row r="46" spans="1:16357">
       <x:c r="E46" s="5"/>
@@ -4100,6 +4177,7 @@
       <x:c r="U46" s="13"/>
       <x:c r="V46" s="13"/>
       <x:c r="W46" s="21"/>
+      <x:c r="X46" s="0"/>
       <x:c r="Z46" s="5"/>
       <x:c r="AA46" s="8" t="s">
         <x:v>9</x:v>
@@ -4123,6 +4201,7 @@
       <x:c r="AP46" s="13"/>
       <x:c r="AQ46" s="13"/>
       <x:c r="AR46" s="21"/>
+      <x:c r="AS46" s="0"/>
     </x:row>
     <x:row r="47" spans="1:16357">
       <x:c r="E47" s="5"/>
@@ -4144,6 +4223,7 @@
       <x:c r="U47" s="13"/>
       <x:c r="V47" s="13"/>
       <x:c r="W47" s="21"/>
+      <x:c r="X47" s="0"/>
       <x:c r="Z47" s="5"/>
       <x:c r="AA47" s="8"/>
       <x:c r="AB47" s="8"/>
@@ -4163,6 +4243,7 @@
       <x:c r="AP47" s="13"/>
       <x:c r="AQ47" s="13"/>
       <x:c r="AR47" s="21"/>
+      <x:c r="AS47" s="0"/>
     </x:row>
     <x:row r="48" spans="1:16357">
       <x:c r="E48" s="5"/>
@@ -4188,6 +4269,7 @@
       <x:c r="U48" s="16"/>
       <x:c r="V48" s="16"/>
       <x:c r="W48" s="23"/>
+      <x:c r="X48" s="0"/>
       <x:c r="Z48" s="5"/>
       <x:c r="AA48" s="8" t="s">
         <x:v>10</x:v>
@@ -4211,6 +4293,7 @@
       <x:c r="AP48" s="16"/>
       <x:c r="AQ48" s="16"/>
       <x:c r="AR48" s="23"/>
+      <x:c r="AS48" s="0"/>
     </x:row>
     <x:row r="49" spans="1:16357">
       <x:c r="E49" s="5"/>
@@ -4232,6 +4315,7 @@
       <x:c r="U49" s="16"/>
       <x:c r="V49" s="16"/>
       <x:c r="W49" s="23"/>
+      <x:c r="X49" s="0"/>
       <x:c r="Z49" s="5"/>
       <x:c r="AA49" s="8"/>
       <x:c r="AB49" s="8"/>
@@ -4251,6 +4335,7 @@
       <x:c r="AP49" s="16"/>
       <x:c r="AQ49" s="16"/>
       <x:c r="AR49" s="23"/>
+      <x:c r="AS49" s="0"/>
     </x:row>
     <x:row r="50" spans="1:16357">
       <x:c r="E50" s="5"/>
@@ -4276,6 +4361,7 @@
       <x:c r="U50" s="13"/>
       <x:c r="V50" s="13"/>
       <x:c r="W50" s="21"/>
+      <x:c r="X50" s="0"/>
       <x:c r="Z50" s="5"/>
       <x:c r="AA50" s="9" t="s">
         <x:v>12</x:v>
@@ -4299,6 +4385,7 @@
       <x:c r="AP50" s="13"/>
       <x:c r="AQ50" s="13"/>
       <x:c r="AR50" s="21"/>
+      <x:c r="AS50" s="0"/>
     </x:row>
     <x:row r="51" spans="1:16357">
       <x:c r="E51" s="5"/>
@@ -4320,6 +4407,7 @@
       <x:c r="U51" s="13"/>
       <x:c r="V51" s="13"/>
       <x:c r="W51" s="21"/>
+      <x:c r="X51" s="0"/>
       <x:c r="Z51" s="5"/>
       <x:c r="AA51" s="9"/>
       <x:c r="AB51" s="9"/>
@@ -4339,6 +4427,7 @@
       <x:c r="AP51" s="13"/>
       <x:c r="AQ51" s="13"/>
       <x:c r="AR51" s="21"/>
+      <x:c r="AS51" s="0"/>
     </x:row>
     <x:row r="52" spans="1:16357">
       <x:c r="E52" s="5"/>
@@ -4364,6 +4453,7 @@
       <x:c r="U52" s="17"/>
       <x:c r="V52" s="17"/>
       <x:c r="W52" s="24"/>
+      <x:c r="X52" s="0"/>
       <x:c r="Z52" s="5"/>
       <x:c r="AA52" s="8" t="s">
         <x:v>14</x:v>
@@ -4387,6 +4477,7 @@
       <x:c r="AP52" s="17"/>
       <x:c r="AQ52" s="17"/>
       <x:c r="AR52" s="24"/>
+      <x:c r="AS52" s="0"/>
     </x:row>
     <x:row r="53" spans="1:16357">
       <x:c r="E53" s="5"/>
@@ -4408,6 +4499,7 @@
       <x:c r="U53" s="17"/>
       <x:c r="V53" s="17"/>
       <x:c r="W53" s="24"/>
+      <x:c r="X53" s="0"/>
       <x:c r="Z53" s="5"/>
       <x:c r="AA53" s="8"/>
       <x:c r="AB53" s="8"/>
@@ -4427,6 +4519,7 @@
       <x:c r="AP53" s="17"/>
       <x:c r="AQ53" s="17"/>
       <x:c r="AR53" s="24"/>
+      <x:c r="AS53" s="0"/>
     </x:row>
     <x:row r="54" spans="1:16357">
       <x:c r="E54" s="10" t="s">
@@ -4450,6 +4543,7 @@
       <x:c r="U54" s="9"/>
       <x:c r="V54" s="9"/>
       <x:c r="W54" s="25"/>
+      <x:c r="X54" s="0"/>
       <x:c r="Z54" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -4471,6 +4565,7 @@
       <x:c r="AP54" s="9"/>
       <x:c r="AQ54" s="9"/>
       <x:c r="AR54" s="25"/>
+      <x:c r="AS54" s="0"/>
     </x:row>
     <x:row r="55" spans="1:16357">
       <x:c r="E55" s="10"/>
@@ -4492,6 +4587,7 @@
       <x:c r="U55" s="9"/>
       <x:c r="V55" s="9"/>
       <x:c r="W55" s="25"/>
+      <x:c r="X55" s="0"/>
       <x:c r="Z55" s="10"/>
       <x:c r="AA55" s="9"/>
       <x:c r="AB55" s="9"/>
@@ -4511,6 +4607,7 @@
       <x:c r="AP55" s="9"/>
       <x:c r="AQ55" s="9"/>
       <x:c r="AR55" s="25"/>
+      <x:c r="AS55" s="0"/>
     </x:row>
     <x:row r="56" spans="1:16357">
       <x:c r="E56" s="11"/>
@@ -4532,6 +4629,7 @@
       <x:c r="U56" s="12"/>
       <x:c r="V56" s="12"/>
       <x:c r="W56" s="26"/>
+      <x:c r="X56" s="0"/>
       <x:c r="Z56" s="11"/>
       <x:c r="AA56" s="12"/>
       <x:c r="AB56" s="12"/>
@@ -4551,7 +4649,9 @@
       <x:c r="AP56" s="12"/>
       <x:c r="AQ56" s="12"/>
       <x:c r="AR56" s="26"/>
-    </x:row>
+      <x:c r="AS56" s="0"/>
+    </x:row>
+    <x:row r="57" spans="1:16357"/>
     <x:row r="59" spans="1:16357">
       <x:c r="E59" s="3"/>
       <x:c r="F59" s="4"/>
@@ -4572,22 +4672,27 @@
       <x:c r="U59" s="4"/>
       <x:c r="V59" s="4"/>
       <x:c r="W59" s="18"/>
+      <x:c r="X59" s="0"/>
     </x:row>
     <x:row r="60" spans="1:16357">
       <x:c r="E60" s="5"/>
       <x:c r="W60" s="19"/>
+      <x:c r="X60" s="0"/>
     </x:row>
     <x:row r="61" spans="1:16357">
       <x:c r="E61" s="5"/>
       <x:c r="W61" s="19"/>
+      <x:c r="X61" s="0"/>
     </x:row>
     <x:row r="62" spans="1:16357">
       <x:c r="E62" s="5"/>
       <x:c r="W62" s="19"/>
+      <x:c r="X62" s="0"/>
     </x:row>
     <x:row r="63" spans="1:16357">
       <x:c r="E63" s="5"/>
       <x:c r="W63" s="19"/>
+      <x:c r="X63" s="0"/>
     </x:row>
     <x:row r="64" spans="1:16357">
       <x:c r="E64" s="6" t="s">
@@ -4611,6 +4716,7 @@
       <x:c r="U64" s="7"/>
       <x:c r="V64" s="7"/>
       <x:c r="W64" s="20"/>
+      <x:c r="X64" s="0"/>
     </x:row>
     <x:row r="65" spans="1:16357">
       <x:c r="E65" s="6"/>
@@ -4632,6 +4738,7 @@
       <x:c r="U65" s="7"/>
       <x:c r="V65" s="7"/>
       <x:c r="W65" s="20"/>
+      <x:c r="X65" s="0"/>
     </x:row>
     <x:row r="66" spans="1:16357">
       <x:c r="E66" s="5"/>
@@ -4657,6 +4764,7 @@
       <x:c r="U66" s="13"/>
       <x:c r="V66" s="13"/>
       <x:c r="W66" s="21"/>
+      <x:c r="X66" s="0"/>
     </x:row>
     <x:row r="67" spans="1:16357">
       <x:c r="E67" s="5"/>
@@ -4678,6 +4786,7 @@
       <x:c r="U67" s="13"/>
       <x:c r="V67" s="13"/>
       <x:c r="W67" s="21"/>
+      <x:c r="X67" s="0"/>
     </x:row>
     <x:row r="68" spans="1:16357">
       <x:c r="E68" s="5"/>
@@ -4703,6 +4812,7 @@
       <x:c r="U68" s="14"/>
       <x:c r="V68" s="14"/>
       <x:c r="W68" s="22"/>
+      <x:c r="X68" s="0"/>
     </x:row>
     <x:row r="69" spans="1:16357">
       <x:c r="E69" s="5"/>
@@ -4724,6 +4834,7 @@
       <x:c r="U69" s="14"/>
       <x:c r="V69" s="14"/>
       <x:c r="W69" s="22"/>
+      <x:c r="X69" s="0"/>
     </x:row>
     <x:row r="70" spans="1:16357">
       <x:c r="E70" s="5"/>
@@ -4745,6 +4856,7 @@
       <x:c r="U70" s="14"/>
       <x:c r="V70" s="14"/>
       <x:c r="W70" s="22"/>
+      <x:c r="X70" s="0"/>
     </x:row>
     <x:row r="71" spans="1:16357">
       <x:c r="E71" s="5"/>
@@ -4770,6 +4882,7 @@
       <x:c r="U71" s="14"/>
       <x:c r="V71" s="14"/>
       <x:c r="W71" s="22"/>
+      <x:c r="X71" s="0"/>
     </x:row>
     <x:row r="72" spans="1:16357">
       <x:c r="E72" s="5"/>
@@ -4791,6 +4904,7 @@
       <x:c r="U72" s="14"/>
       <x:c r="V72" s="14"/>
       <x:c r="W72" s="22"/>
+      <x:c r="X72" s="0"/>
     </x:row>
     <x:row r="73" spans="1:16357">
       <x:c r="E73" s="5"/>
@@ -4812,6 +4926,7 @@
       <x:c r="U73" s="14"/>
       <x:c r="V73" s="14"/>
       <x:c r="W73" s="22"/>
+      <x:c r="X73" s="0"/>
     </x:row>
     <x:row r="74" spans="1:16357">
       <x:c r="E74" s="5"/>
@@ -4837,6 +4952,7 @@
       <x:c r="U74" s="13"/>
       <x:c r="V74" s="13"/>
       <x:c r="W74" s="21"/>
+      <x:c r="X74" s="0"/>
     </x:row>
     <x:row r="75" spans="1:16357">
       <x:c r="E75" s="5"/>
@@ -4858,6 +4974,7 @@
       <x:c r="U75" s="13"/>
       <x:c r="V75" s="13"/>
       <x:c r="W75" s="21"/>
+      <x:c r="X75" s="0"/>
     </x:row>
     <x:row r="76" spans="1:16357">
       <x:c r="E76" s="5"/>
@@ -4883,6 +5000,7 @@
       <x:c r="U76" s="16"/>
       <x:c r="V76" s="16"/>
       <x:c r="W76" s="23"/>
+      <x:c r="X76" s="0"/>
     </x:row>
     <x:row r="77" spans="1:16357">
       <x:c r="E77" s="5"/>
@@ -4904,6 +5022,7 @@
       <x:c r="U77" s="16"/>
       <x:c r="V77" s="16"/>
       <x:c r="W77" s="23"/>
+      <x:c r="X77" s="0"/>
     </x:row>
     <x:row r="78" spans="1:16357">
       <x:c r="E78" s="5"/>
@@ -4929,6 +5048,7 @@
       <x:c r="U78" s="13"/>
       <x:c r="V78" s="13"/>
       <x:c r="W78" s="21"/>
+      <x:c r="X78" s="0"/>
     </x:row>
     <x:row r="79" spans="1:16357">
       <x:c r="E79" s="5"/>
@@ -4950,6 +5070,7 @@
       <x:c r="U79" s="13"/>
       <x:c r="V79" s="13"/>
       <x:c r="W79" s="21"/>
+      <x:c r="X79" s="0"/>
     </x:row>
     <x:row r="80" spans="1:16357">
       <x:c r="E80" s="5"/>
@@ -4975,6 +5096,7 @@
       <x:c r="U80" s="17"/>
       <x:c r="V80" s="17"/>
       <x:c r="W80" s="24"/>
+      <x:c r="X80" s="0"/>
     </x:row>
     <x:row r="81" spans="1:16357">
       <x:c r="E81" s="5"/>
@@ -4996,6 +5118,7 @@
       <x:c r="U81" s="17"/>
       <x:c r="V81" s="17"/>
       <x:c r="W81" s="24"/>
+      <x:c r="X81" s="0"/>
     </x:row>
     <x:row r="82" spans="1:16357">
       <x:c r="E82" s="10" t="s">
@@ -5019,6 +5142,7 @@
       <x:c r="U82" s="9"/>
       <x:c r="V82" s="9"/>
       <x:c r="W82" s="25"/>
+      <x:c r="X82" s="0"/>
     </x:row>
     <x:row r="83" spans="1:16357">
       <x:c r="E83" s="10"/>
@@ -5040,6 +5164,7 @@
       <x:c r="U83" s="9"/>
       <x:c r="V83" s="9"/>
       <x:c r="W83" s="25"/>
+      <x:c r="X83" s="0"/>
     </x:row>
     <x:row r="84" spans="1:16357">
       <x:c r="E84" s="11"/>
@@ -5061,7 +5186,9 @@
       <x:c r="U84" s="12"/>
       <x:c r="V84" s="12"/>
       <x:c r="W84" s="26"/>
-    </x:row>
+      <x:c r="X84" s="0"/>
+    </x:row>
+    <x:row r="85" spans="1:16357"/>
   </x:sheetData>
   <x:mergeCells count="80">
     <x:mergeCell ref="E8:W9"/>
